--- a/Spread Sheets/all-efforts.xlsx
+++ b/Spread Sheets/all-efforts.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rraub1/Dropbox (ASU)/dev/sustainable-cities-city-map/Spread Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rraub1/Dropbox-ASU/dev/sustainable-cities-city-map/Spread Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="2840" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="2840" windowWidth="26020" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Fire Station No. 219</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href ="http://www.mesaaz.gov/sustainability/pdf/Mesa_Fire_Station_219_LEED.pdf"&gt;Learn more about station 219 solar power&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Fire Station No. 220</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href ="http://www.mesaaz.gov/sustainability/pdf/Mesa_Fire_Station_220_LEED.pdf"&gt;Learn more about station 220 solar power&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>One of the first LEED certified city of Mesa buildings. 7.5% of the energy used comes from the sun with a 15.18 kW photovoltaic system.</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>Red Mountain Multigenerational Center</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href ="http://www.mesaaz.gov/sustainability/solarday.aspx"&gt;Learn more about the center's solar power&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>294 kW</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
     <t>Fire Station No. 212</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="http://www.mesaaz.gov/sustainability/solarday.aspx"&gt;Learn more about station 212 solar power&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>185 kW</t>
   </si>
   <si>
@@ -230,9 +218,6 @@
     <t>Red Mountain park</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href ="http://www.mesaaz.gov/sustainability/pdf/SolFocusProjectWeb.pdf"&gt;More about Red Mountain Park solar&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>70.5 kW</t>
   </si>
   <si>
@@ -759,9 +744,6 @@
   </si>
   <si>
     <t>East Economy Parking Lot  Sky Harbor</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href ="https://skyharbor.com/PhxPerspective/SolarPower.html"&gt;Clean energy at sky harbor&lt;/a&gt;</t>
   </si>
   <si>
     <t>5400 kW</t>
@@ -1919,6 +1901,24 @@
   </si>
   <si>
     <t>Green roof captures and guides rain water to plants below</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href ="https://www.phoenix.gov/auditorsite/Documents/Renewable%20Energy.pdf"&gt;Clean energy at sky harbor&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href ="http://www.azcentral.com/community/mesa/articles/20130513fire-station-in-mesa-earns-leed-gold.html"&gt;Learn more about station 219 solar power&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href ="http://www.usgbc.org/projects/city-mesa-fire-station-220"&gt;Learn more about station 220 solar power&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href ="http://www.mesaaz.gov/residents/sustainability/solar-resources"&gt;Learn more about the center's solar power&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href ="http://www.mesaaz.gov/residents/sustainability/solar-resources"&gt;More about Red Mountain Park solar&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.mesaaz.gov/residents/sustainability/solar-resources"&gt;Learn more about station 212 solar power&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1934,12 +1934,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1954,8 +1960,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2294,13 +2301,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2341,176 +2348,176 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="H5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="J5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="K5" t="s">
+      <c r="B6" t="s">
         <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -2522,1103 +2529,1103 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
         <v>55</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>56</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>57</v>
       </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M6" t="s">
+      <c r="H7" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="I7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" t="s">
+      <c r="J7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="K7" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="J7" t="s">
+      <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>69</v>
       </c>
-      <c r="M7" t="s">
+      <c r="H8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="I8" t="s">
         <v>71</v>
       </c>
-      <c r="B8" t="s">
+      <c r="J8" t="s">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="K8" t="s">
         <v>73</v>
       </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
         <v>74</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>75</v>
       </c>
-      <c r="I8" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>76</v>
       </c>
-      <c r="J8" t="s">
+      <c r="B9" t="s">
         <v>77</v>
       </c>
-      <c r="K8" t="s">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>78</v>
       </c>
-      <c r="L8" t="s">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>79</v>
       </c>
-      <c r="M8" t="s">
+      <c r="H9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="I9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
+      <c r="J9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="K9" t="s">
         <v>83</v>
       </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>84</v>
       </c>
-      <c r="H9" t="s">
+      <c r="M9" t="s">
         <v>85</v>
       </c>
-      <c r="I9" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>86</v>
       </c>
-      <c r="J9" t="s">
+      <c r="B10" t="s">
         <v>87</v>
       </c>
-      <c r="K9" t="s">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
         <v>88</v>
       </c>
-      <c r="L9" t="s">
+      <c r="H10" t="s">
         <v>89</v>
       </c>
-      <c r="M9" t="s">
+      <c r="I10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="J10" t="s">
         <v>91</v>
       </c>
-      <c r="B10" t="s">
+      <c r="K10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="L10" t="s">
         <v>93</v>
       </c>
-      <c r="H10" t="s">
+      <c r="M10" t="s">
         <v>94</v>
       </c>
-      <c r="I10" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>95</v>
       </c>
-      <c r="J10" t="s">
+      <c r="B11" t="s">
         <v>96</v>
       </c>
-      <c r="K10" t="s">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
         <v>97</v>
       </c>
-      <c r="L10" t="s">
+      <c r="H11" t="s">
         <v>98</v>
       </c>
-      <c r="M10" t="s">
+      <c r="I11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="J11" t="s">
         <v>100</v>
       </c>
-      <c r="B11" t="s">
+      <c r="K11" t="s">
         <v>101</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="L11" t="s">
         <v>102</v>
       </c>
-      <c r="H11" t="s">
+      <c r="M11" t="s">
         <v>103</v>
       </c>
-      <c r="I11" t="s">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>104</v>
       </c>
-      <c r="J11" t="s">
+      <c r="B12" t="s">
         <v>105</v>
       </c>
-      <c r="K11" t="s">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
         <v>106</v>
       </c>
-      <c r="L11" t="s">
+      <c r="H12" t="s">
         <v>107</v>
       </c>
-      <c r="M11" t="s">
+      <c r="I12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="J12" t="s">
         <v>109</v>
       </c>
-      <c r="B12" t="s">
+      <c r="K12" t="s">
         <v>110</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="L12" t="s">
         <v>111</v>
       </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
         <v>112</v>
       </c>
-      <c r="I12" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>113</v>
       </c>
-      <c r="J12" t="s">
+      <c r="B13" t="s">
         <v>114</v>
       </c>
-      <c r="K12" t="s">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>115</v>
       </c>
-      <c r="L12" t="s">
+      <c r="H13" t="s">
         <v>116</v>
       </c>
-      <c r="M12" t="s">
+      <c r="I13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="J13" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
+      <c r="K13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="L13" t="s">
         <v>120</v>
       </c>
-      <c r="H13" t="s">
+      <c r="M13" t="s">
         <v>121</v>
       </c>
-      <c r="I13" t="s">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
+      <c r="B14" t="s">
         <v>123</v>
       </c>
-      <c r="K13" t="s">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
         <v>124</v>
       </c>
-      <c r="L13" t="s">
+      <c r="H14" t="s">
         <v>125</v>
       </c>
-      <c r="M13" t="s">
+      <c r="I14" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="J14" t="s">
         <v>127</v>
       </c>
-      <c r="B14" t="s">
+      <c r="K14" t="s">
         <v>128</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="s">
         <v>129</v>
       </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>130</v>
       </c>
-      <c r="I14" t="s">
+      <c r="B15" t="s">
         <v>131</v>
       </c>
-      <c r="J14" t="s">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
         <v>132</v>
       </c>
-      <c r="K14" t="s">
+      <c r="H15" t="s">
         <v>133</v>
       </c>
-      <c r="L14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="I15" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="J15" t="s">
         <v>135</v>
       </c>
-      <c r="B15" t="s">
+      <c r="K15" t="s">
         <v>136</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="L15" t="s">
         <v>137</v>
       </c>
-      <c r="H15" t="s">
+      <c r="M15" t="s">
         <v>138</v>
       </c>
-      <c r="I15" t="s">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="J15" t="s">
+      <c r="B16" t="s">
         <v>140</v>
       </c>
-      <c r="K15" t="s">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
         <v>141</v>
       </c>
-      <c r="L15" t="s">
+      <c r="H16" t="s">
         <v>142</v>
       </c>
-      <c r="M15" t="s">
+      <c r="I16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="J16" t="s">
         <v>144</v>
       </c>
-      <c r="B16" t="s">
+      <c r="K16" t="s">
         <v>145</v>
       </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="L16" t="s">
         <v>146</v>
       </c>
-      <c r="H16" t="s">
+      <c r="M16" t="s">
         <v>147</v>
       </c>
-      <c r="I16" t="s">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>148</v>
       </c>
-      <c r="J16" t="s">
+      <c r="B17" t="s">
         <v>149</v>
       </c>
-      <c r="K16" t="s">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
         <v>150</v>
       </c>
-      <c r="L16" t="s">
+      <c r="H17" t="s">
         <v>151</v>
       </c>
-      <c r="M16" t="s">
+      <c r="I17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="J17" t="s">
         <v>153</v>
       </c>
-      <c r="B17" t="s">
+      <c r="K17" t="s">
         <v>154</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" t="s">
         <v>155</v>
       </c>
-      <c r="H17" t="s">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>156</v>
       </c>
-      <c r="I17" t="s">
+      <c r="B18" t="s">
         <v>157</v>
       </c>
-      <c r="J17" t="s">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
         <v>158</v>
       </c>
-      <c r="K17" t="s">
+      <c r="H18" t="s">
         <v>159</v>
       </c>
-      <c r="L17" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="I18" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="J18" t="s">
         <v>161</v>
       </c>
-      <c r="B18" t="s">
+      <c r="K18" t="s">
         <v>162</v>
       </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="L18" t="s">
         <v>163</v>
       </c>
-      <c r="H18" t="s">
+      <c r="M18" t="s">
         <v>164</v>
       </c>
-      <c r="I18" t="s">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>165</v>
       </c>
-      <c r="J18" t="s">
+      <c r="B19" t="s">
         <v>166</v>
       </c>
-      <c r="K18" t="s">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
         <v>167</v>
       </c>
-      <c r="L18" t="s">
+      <c r="H19" t="s">
         <v>168</v>
       </c>
-      <c r="M18" t="s">
+      <c r="I19" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="J19" t="s">
         <v>170</v>
       </c>
-      <c r="B19" t="s">
+      <c r="K19" t="s">
         <v>171</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="L19" t="s">
         <v>172</v>
       </c>
-      <c r="H19" t="s">
+      <c r="M19" t="s">
         <v>173</v>
       </c>
-      <c r="I19" t="s">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>174</v>
       </c>
-      <c r="J19" t="s">
+      <c r="B20" t="s">
         <v>175</v>
       </c>
-      <c r="K19" t="s">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
         <v>176</v>
       </c>
-      <c r="L19" t="s">
+      <c r="H20" t="s">
         <v>177</v>
       </c>
-      <c r="M19" t="s">
+      <c r="I20" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="J20" t="s">
         <v>179</v>
       </c>
-      <c r="B20" t="s">
+      <c r="K20" t="s">
         <v>180</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" t="s">
         <v>181</v>
       </c>
-      <c r="H20" t="s">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>182</v>
       </c>
-      <c r="I20" t="s">
+      <c r="B21" t="s">
         <v>183</v>
       </c>
-      <c r="J20" t="s">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
         <v>184</v>
       </c>
-      <c r="K20" t="s">
+      <c r="H21" t="s">
         <v>185</v>
       </c>
-      <c r="L20" t="s">
-        <v>142</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="I21" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="J21" t="s">
         <v>187</v>
       </c>
-      <c r="B21" t="s">
+      <c r="K21" t="s">
         <v>188</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="L21" t="s">
         <v>189</v>
       </c>
-      <c r="H21" t="s">
+      <c r="M21" t="s">
         <v>190</v>
       </c>
-      <c r="I21" t="s">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>191</v>
       </c>
-      <c r="J21" t="s">
+      <c r="B22" t="s">
         <v>192</v>
       </c>
-      <c r="K21" t="s">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
         <v>193</v>
       </c>
-      <c r="L21" t="s">
+      <c r="H22" t="s">
         <v>194</v>
       </c>
-      <c r="M21" t="s">
+      <c r="I22" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="J22" t="s">
         <v>196</v>
       </c>
-      <c r="B22" t="s">
+      <c r="K22" t="s">
         <v>197</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="s">
         <v>198</v>
       </c>
-      <c r="H22" t="s">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>199</v>
       </c>
-      <c r="I22" t="s">
+      <c r="B23" t="s">
         <v>200</v>
       </c>
-      <c r="J22" t="s">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
         <v>201</v>
       </c>
-      <c r="K22" t="s">
+      <c r="H23" t="s">
         <v>202</v>
       </c>
-      <c r="L22" t="s">
-        <v>177</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="I23" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="J23" t="s">
         <v>204</v>
       </c>
-      <c r="B23" t="s">
+      <c r="K23" t="s">
         <v>205</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="L23" t="s">
         <v>206</v>
       </c>
-      <c r="H23" t="s">
+      <c r="M23" t="s">
         <v>207</v>
       </c>
-      <c r="I23" t="s">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>208</v>
       </c>
-      <c r="J23" t="s">
+      <c r="B24" t="s">
         <v>209</v>
       </c>
-      <c r="K23" t="s">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
         <v>210</v>
       </c>
-      <c r="L23" t="s">
+      <c r="H24" t="s">
         <v>211</v>
       </c>
-      <c r="M23" t="s">
+      <c r="I24" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="J24" t="s">
         <v>213</v>
       </c>
-      <c r="B24" t="s">
+      <c r="K24" t="s">
         <v>214</v>
       </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="L24" t="s">
         <v>215</v>
       </c>
-      <c r="H24" t="s">
+      <c r="M24" t="s">
         <v>216</v>
       </c>
-      <c r="I24" t="s">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>217</v>
       </c>
-      <c r="J24" t="s">
+      <c r="B25" t="s">
         <v>218</v>
       </c>
-      <c r="K24" t="s">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
         <v>219</v>
       </c>
-      <c r="L24" t="s">
+      <c r="H25" t="s">
         <v>220</v>
       </c>
-      <c r="M24" t="s">
+      <c r="I25" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="J25" t="s">
         <v>222</v>
       </c>
-      <c r="B25" t="s">
+      <c r="K25" t="s">
         <v>223</v>
       </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="L25" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" t="s">
         <v>224</v>
       </c>
-      <c r="H25" t="s">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>225</v>
       </c>
-      <c r="I25" t="s">
+      <c r="B26" t="s">
         <v>226</v>
       </c>
-      <c r="J25" t="s">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
         <v>227</v>
       </c>
-      <c r="K25" t="s">
+      <c r="H26" t="s">
         <v>228</v>
       </c>
-      <c r="L25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="I26" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="J26" t="s">
         <v>230</v>
       </c>
-      <c r="B26" t="s">
+      <c r="K26" t="s">
         <v>231</v>
       </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="L26" t="s">
         <v>232</v>
       </c>
-      <c r="H26" t="s">
+      <c r="M26" t="s">
         <v>233</v>
       </c>
-      <c r="I26" t="s">
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J26" t="s">
+      <c r="B27" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K26" t="s">
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L26" t="s">
+      <c r="H27" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M26" t="s">
+      <c r="I27" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="J27" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B27" t="s">
+      <c r="K27" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="M27" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H27" t="s">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>242</v>
       </c>
-      <c r="I27" t="s">
+      <c r="B28" t="s">
         <v>243</v>
       </c>
-      <c r="J27" t="s">
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
         <v>244</v>
       </c>
-      <c r="K27" t="s">
+      <c r="H28" t="s">
         <v>245</v>
       </c>
-      <c r="L27" t="s">
+      <c r="I28" t="s">
         <v>246</v>
       </c>
-      <c r="M27" t="s">
+      <c r="J28" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K28" t="s">
         <v>248</v>
       </c>
-      <c r="B28" t="s">
+      <c r="L28" t="s">
         <v>249</v>
       </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="M28" t="s">
         <v>250</v>
       </c>
-      <c r="H28" t="s">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>251</v>
       </c>
-      <c r="I28" t="s">
+      <c r="B29" t="s">
         <v>252</v>
       </c>
-      <c r="J28" t="s">
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
         <v>253</v>
       </c>
-      <c r="K28" t="s">
+      <c r="H29" t="s">
         <v>254</v>
       </c>
-      <c r="L28" t="s">
+      <c r="I29" t="s">
         <v>255</v>
       </c>
-      <c r="M28" t="s">
+      <c r="J29" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" t="s">
         <v>257</v>
       </c>
-      <c r="B29" t="s">
+      <c r="M29" t="s">
         <v>258</v>
       </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>259</v>
       </c>
-      <c r="H29" t="s">
+      <c r="B30" t="s">
         <v>260</v>
       </c>
-      <c r="I29" t="s">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
         <v>261</v>
       </c>
-      <c r="J29" t="s">
+      <c r="H30" t="s">
         <v>262</v>
       </c>
-      <c r="K29" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="I30" t="s">
         <v>263</v>
       </c>
-      <c r="M29" t="s">
+      <c r="J30" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
         <v>265</v>
       </c>
-      <c r="B30" t="s">
+      <c r="M30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>266</v>
       </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="B31" t="s">
         <v>267</v>
       </c>
-      <c r="H30" t="s">
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H31" t="s">
         <v>269</v>
       </c>
-      <c r="J30" t="s">
+      <c r="I31" t="s">
         <v>270</v>
       </c>
-      <c r="K30" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="J31" t="s">
         <v>271</v>
       </c>
-      <c r="M30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="K31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" t="s">
         <v>272</v>
       </c>
-      <c r="B31" t="s">
+      <c r="M31" t="s">
         <v>273</v>
       </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>274</v>
       </c>
-      <c r="H31" t="s">
+      <c r="B32" t="s">
         <v>275</v>
       </c>
-      <c r="I31" t="s">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
         <v>276</v>
       </c>
-      <c r="J31" t="s">
+      <c r="H32" t="s">
         <v>277</v>
       </c>
-      <c r="K31" t="s">
-        <v>228</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="I32" t="s">
         <v>278</v>
       </c>
-      <c r="M31" t="s">
+      <c r="J32" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="K32" t="s">
         <v>280</v>
       </c>
-      <c r="B32" t="s">
+      <c r="L32" t="s">
         <v>281</v>
       </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="M32" t="s">
         <v>282</v>
       </c>
-      <c r="H32" t="s">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>283</v>
       </c>
-      <c r="I32" t="s">
+      <c r="B33" t="s">
         <v>284</v>
       </c>
-      <c r="J32" t="s">
-        <v>285</v>
-      </c>
-      <c r="K32" t="s">
-        <v>286</v>
-      </c>
-      <c r="L32" t="s">
-        <v>287</v>
-      </c>
-      <c r="M32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>289</v>
-      </c>
-      <c r="B33" t="s">
-        <v>290</v>
-      </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -3626,39 +3633,39 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H33" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -3667,39 +3674,39 @@
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I34" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -3708,40 +3715,40 @@
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
       </c>
       <c r="G35" t="s">
+        <v>297</v>
+      </c>
+      <c r="H35" t="s">
+        <v>298</v>
+      </c>
+      <c r="I35" t="s">
+        <v>299</v>
+      </c>
+      <c r="J35" t="s">
+        <v>300</v>
+      </c>
+      <c r="K35" t="s">
+        <v>301</v>
+      </c>
+      <c r="L35" t="s">
+        <v>302</v>
+      </c>
+      <c r="M35" t="s">
         <v>303</v>
       </c>
-      <c r="H35" t="s">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>304</v>
       </c>
-      <c r="I35" t="s">
+      <c r="B36" t="s">
         <v>305</v>
       </c>
-      <c r="J35" t="s">
-        <v>306</v>
-      </c>
-      <c r="K35" t="s">
-        <v>307</v>
-      </c>
-      <c r="L35" t="s">
-        <v>308</v>
-      </c>
-      <c r="M35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>310</v>
-      </c>
-      <c r="B36" t="s">
-        <v>311</v>
-      </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -3749,40 +3756,40 @@
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
       </c>
       <c r="G36" t="s">
+        <v>306</v>
+      </c>
+      <c r="H36" t="s">
+        <v>307</v>
+      </c>
+      <c r="I36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J36" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" t="s">
+        <v>310</v>
+      </c>
+      <c r="L36" t="s">
+        <v>311</v>
+      </c>
+      <c r="M36" t="s">
         <v>312</v>
       </c>
-      <c r="H36" t="s">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>313</v>
       </c>
-      <c r="I36" t="s">
+      <c r="B37" t="s">
         <v>314</v>
       </c>
-      <c r="J36" t="s">
-        <v>315</v>
-      </c>
-      <c r="K36" t="s">
-        <v>316</v>
-      </c>
-      <c r="L36" t="s">
-        <v>317</v>
-      </c>
-      <c r="M36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>319</v>
-      </c>
-      <c r="B37" t="s">
-        <v>320</v>
-      </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -3790,163 +3797,163 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
       </c>
       <c r="G37" t="s">
+        <v>315</v>
+      </c>
+      <c r="H37" t="s">
+        <v>316</v>
+      </c>
+      <c r="I37" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" t="s">
+        <v>318</v>
+      </c>
+      <c r="K37" t="s">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H37" t="s">
+      <c r="B38" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I37" t="s">
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="J37" t="s">
+      <c r="H38" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K37" t="s">
+      <c r="I38" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="L37" t="s">
-        <v>317</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="J38" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="K38" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B38" t="s">
+      <c r="L38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>329</v>
       </c>
-      <c r="H38" t="s">
+      <c r="B39" t="s">
         <v>330</v>
       </c>
-      <c r="I38" t="s">
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
         <v>331</v>
       </c>
-      <c r="J38" t="s">
+      <c r="G39" t="s">
         <v>332</v>
       </c>
-      <c r="K38" t="s">
+      <c r="H39" t="s">
         <v>333</v>
       </c>
-      <c r="L38" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="I39" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="J39" t="s">
         <v>335</v>
       </c>
-      <c r="B39" t="s">
+      <c r="K39" t="s">
         <v>336</v>
       </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="L39" t="s">
         <v>337</v>
       </c>
-      <c r="G39" t="s">
+      <c r="M39" t="s">
         <v>338</v>
       </c>
-      <c r="H39" t="s">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
         <v>339</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H40" t="s">
         <v>340</v>
       </c>
-      <c r="J39" t="s">
+      <c r="I40" t="s">
         <v>341</v>
       </c>
-      <c r="K39" t="s">
+      <c r="J40" t="s">
         <v>342</v>
       </c>
-      <c r="L39" t="s">
+      <c r="K40" t="s">
+        <v>223</v>
+      </c>
+      <c r="L40" t="s">
+        <v>172</v>
+      </c>
+      <c r="M40" t="s">
         <v>343</v>
       </c>
-      <c r="M39" t="s">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="B41" t="s">
         <v>345</v>
       </c>
-      <c r="H40" t="s">
-        <v>346</v>
-      </c>
-      <c r="I40" t="s">
-        <v>347</v>
-      </c>
-      <c r="J40" t="s">
-        <v>348</v>
-      </c>
-      <c r="K40" t="s">
-        <v>228</v>
-      </c>
-      <c r="L40" t="s">
-        <v>177</v>
-      </c>
-      <c r="M40" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>350</v>
-      </c>
-      <c r="B41" t="s">
-        <v>351</v>
-      </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -3954,39 +3961,39 @@
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H41" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I41" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J41" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K41" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M41" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
@@ -3995,39 +4002,39 @@
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H42" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="I42" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K42" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M42" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
@@ -4036,39 +4043,39 @@
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="G43" t="s">
+        <v>362</v>
+      </c>
+      <c r="H43" t="s">
+        <v>363</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="s">
         <v>368</v>
-      </c>
-      <c r="H43" t="s">
-        <v>369</v>
-      </c>
-      <c r="I43" t="s">
-        <v>370</v>
-      </c>
-      <c r="J43" t="s">
-        <v>371</v>
-      </c>
-      <c r="K43" t="s">
-        <v>372</v>
-      </c>
-      <c r="L43" t="s">
-        <v>373</v>
-      </c>
-      <c r="M43" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
@@ -4077,39 +4084,39 @@
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H44" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I44" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J44" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K44" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M44" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -4118,80 +4125,80 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H45" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="I45" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J45" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K45" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>381</v>
+      </c>
+      <c r="B46" t="s">
+        <v>382</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
+        <v>383</v>
+      </c>
+      <c r="H46" t="s">
+        <v>384</v>
+      </c>
+      <c r="I46" t="s">
+        <v>385</v>
+      </c>
+      <c r="J46" t="s">
+        <v>386</v>
+      </c>
+      <c r="K46" t="s">
         <v>387</v>
       </c>
-      <c r="B46" t="s">
+      <c r="L46" t="s">
         <v>388</v>
       </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="M46" t="s">
         <v>389</v>
-      </c>
-      <c r="H46" t="s">
-        <v>390</v>
-      </c>
-      <c r="I46" t="s">
-        <v>391</v>
-      </c>
-      <c r="J46" t="s">
-        <v>392</v>
-      </c>
-      <c r="K46" t="s">
-        <v>393</v>
-      </c>
-      <c r="L46" t="s">
-        <v>394</v>
-      </c>
-      <c r="M46" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
@@ -4200,80 +4207,80 @@
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H47" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I47" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="J47" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K47" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L47" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M47" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>398</v>
+      </c>
+      <c r="B48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" t="s">
+        <v>401</v>
+      </c>
+      <c r="H48" t="s">
+        <v>402</v>
+      </c>
+      <c r="I48" t="s">
+        <v>403</v>
+      </c>
+      <c r="J48" t="s">
         <v>404</v>
       </c>
-      <c r="B48" t="s">
+      <c r="K48" t="s">
         <v>405</v>
       </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" t="s">
-        <v>73</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="L48" t="s">
         <v>406</v>
       </c>
-      <c r="G48" t="s">
+      <c r="M48" t="s">
         <v>407</v>
-      </c>
-      <c r="H48" t="s">
-        <v>408</v>
-      </c>
-      <c r="I48" t="s">
-        <v>409</v>
-      </c>
-      <c r="J48" t="s">
-        <v>410</v>
-      </c>
-      <c r="K48" t="s">
-        <v>411</v>
-      </c>
-      <c r="L48" t="s">
-        <v>412</v>
-      </c>
-      <c r="M48" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
@@ -4282,39 +4289,39 @@
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F49" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" t="s">
+        <v>410</v>
+      </c>
+      <c r="H49" t="s">
+        <v>411</v>
+      </c>
+      <c r="I49" t="s">
+        <v>412</v>
+      </c>
+      <c r="J49" t="s">
+        <v>404</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s">
         <v>406</v>
       </c>
-      <c r="G49" t="s">
-        <v>416</v>
-      </c>
-      <c r="H49" t="s">
-        <v>417</v>
-      </c>
-      <c r="I49" t="s">
-        <v>418</v>
-      </c>
-      <c r="J49" t="s">
-        <v>410</v>
-      </c>
-      <c r="K49" t="s">
-        <v>411</v>
-      </c>
-      <c r="L49" t="s">
-        <v>412</v>
-      </c>
       <c r="M49" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
@@ -4323,39 +4330,39 @@
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F50" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>415</v>
+      </c>
+      <c r="H50" t="s">
+        <v>416</v>
+      </c>
+      <c r="I50" t="s">
+        <v>417</v>
+      </c>
+      <c r="J50" t="s">
+        <v>418</v>
+      </c>
+      <c r="K50" t="s">
+        <v>405</v>
+      </c>
+      <c r="L50" t="s">
         <v>406</v>
       </c>
-      <c r="G50" t="s">
-        <v>421</v>
-      </c>
-      <c r="H50" t="s">
-        <v>422</v>
-      </c>
-      <c r="I50" t="s">
-        <v>423</v>
-      </c>
-      <c r="J50" t="s">
-        <v>424</v>
-      </c>
-      <c r="K50" t="s">
-        <v>411</v>
-      </c>
-      <c r="L50" t="s">
-        <v>412</v>
-      </c>
       <c r="M50" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B51" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -4364,39 +4371,39 @@
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
+        <v>400</v>
+      </c>
+      <c r="G51" t="s">
+        <v>421</v>
+      </c>
+      <c r="H51" t="s">
+        <v>422</v>
+      </c>
+      <c r="I51" t="s">
+        <v>423</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s">
         <v>406</v>
       </c>
-      <c r="G51" t="s">
-        <v>427</v>
-      </c>
-      <c r="H51" t="s">
-        <v>428</v>
-      </c>
-      <c r="I51" t="s">
-        <v>429</v>
-      </c>
-      <c r="J51" t="s">
-        <v>410</v>
-      </c>
-      <c r="K51" t="s">
-        <v>411</v>
-      </c>
-      <c r="L51" t="s">
-        <v>412</v>
-      </c>
       <c r="M51" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B52" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -4405,39 +4412,39 @@
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F52" t="s">
+        <v>400</v>
+      </c>
+      <c r="G52" t="s">
+        <v>426</v>
+      </c>
+      <c r="H52" t="s">
+        <v>427</v>
+      </c>
+      <c r="I52" t="s">
+        <v>428</v>
+      </c>
+      <c r="J52" t="s">
+        <v>404</v>
+      </c>
+      <c r="K52" t="s">
+        <v>405</v>
+      </c>
+      <c r="L52" t="s">
         <v>406</v>
       </c>
-      <c r="G52" t="s">
-        <v>432</v>
-      </c>
-      <c r="H52" t="s">
-        <v>433</v>
-      </c>
-      <c r="I52" t="s">
-        <v>434</v>
-      </c>
-      <c r="J52" t="s">
-        <v>410</v>
-      </c>
-      <c r="K52" t="s">
-        <v>411</v>
-      </c>
-      <c r="L52" t="s">
-        <v>412</v>
-      </c>
       <c r="M52" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B53" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
@@ -4446,39 +4453,39 @@
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F53" t="s">
+        <v>400</v>
+      </c>
+      <c r="G53" t="s">
+        <v>431</v>
+      </c>
+      <c r="H53" t="s">
+        <v>432</v>
+      </c>
+      <c r="I53" t="s">
+        <v>433</v>
+      </c>
+      <c r="J53" t="s">
+        <v>404</v>
+      </c>
+      <c r="K53" t="s">
+        <v>405</v>
+      </c>
+      <c r="L53" t="s">
         <v>406</v>
       </c>
-      <c r="G53" t="s">
-        <v>437</v>
-      </c>
-      <c r="H53" t="s">
-        <v>438</v>
-      </c>
-      <c r="I53" t="s">
-        <v>439</v>
-      </c>
-      <c r="J53" t="s">
-        <v>410</v>
-      </c>
-      <c r="K53" t="s">
-        <v>411</v>
-      </c>
-      <c r="L53" t="s">
-        <v>412</v>
-      </c>
       <c r="M53" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
@@ -4487,39 +4494,39 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F54" t="s">
+        <v>400</v>
+      </c>
+      <c r="G54" t="s">
+        <v>436</v>
+      </c>
+      <c r="H54" t="s">
+        <v>437</v>
+      </c>
+      <c r="I54" t="s">
+        <v>438</v>
+      </c>
+      <c r="J54" t="s">
+        <v>404</v>
+      </c>
+      <c r="K54" t="s">
+        <v>405</v>
+      </c>
+      <c r="L54" t="s">
         <v>406</v>
       </c>
-      <c r="G54" t="s">
-        <v>442</v>
-      </c>
-      <c r="H54" t="s">
-        <v>443</v>
-      </c>
-      <c r="I54" t="s">
-        <v>444</v>
-      </c>
-      <c r="J54" t="s">
-        <v>410</v>
-      </c>
-      <c r="K54" t="s">
-        <v>411</v>
-      </c>
-      <c r="L54" t="s">
-        <v>412</v>
-      </c>
       <c r="M54" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
@@ -4528,39 +4535,39 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
+        <v>400</v>
+      </c>
+      <c r="G55" t="s">
+        <v>441</v>
+      </c>
+      <c r="H55" t="s">
+        <v>442</v>
+      </c>
+      <c r="I55" t="s">
+        <v>443</v>
+      </c>
+      <c r="J55" t="s">
+        <v>404</v>
+      </c>
+      <c r="K55" t="s">
+        <v>405</v>
+      </c>
+      <c r="L55" t="s">
         <v>406</v>
       </c>
-      <c r="G55" t="s">
-        <v>447</v>
-      </c>
-      <c r="H55" t="s">
-        <v>448</v>
-      </c>
-      <c r="I55" t="s">
-        <v>449</v>
-      </c>
-      <c r="J55" t="s">
-        <v>410</v>
-      </c>
-      <c r="K55" t="s">
-        <v>411</v>
-      </c>
-      <c r="L55" t="s">
-        <v>412</v>
-      </c>
       <c r="M55" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B56" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
@@ -4569,39 +4576,39 @@
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
+        <v>400</v>
+      </c>
+      <c r="G56" t="s">
+        <v>446</v>
+      </c>
+      <c r="H56" t="s">
+        <v>447</v>
+      </c>
+      <c r="I56" t="s">
+        <v>448</v>
+      </c>
+      <c r="J56" t="s">
+        <v>404</v>
+      </c>
+      <c r="K56" t="s">
+        <v>405</v>
+      </c>
+      <c r="L56" t="s">
         <v>406</v>
       </c>
-      <c r="G56" t="s">
-        <v>452</v>
-      </c>
-      <c r="H56" t="s">
-        <v>453</v>
-      </c>
-      <c r="I56" t="s">
-        <v>454</v>
-      </c>
-      <c r="J56" t="s">
-        <v>410</v>
-      </c>
-      <c r="K56" t="s">
-        <v>411</v>
-      </c>
-      <c r="L56" t="s">
-        <v>412</v>
-      </c>
       <c r="M56" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B57" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
@@ -4610,39 +4617,39 @@
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F57" t="s">
+        <v>400</v>
+      </c>
+      <c r="G57" t="s">
+        <v>451</v>
+      </c>
+      <c r="H57" t="s">
+        <v>452</v>
+      </c>
+      <c r="I57" t="s">
+        <v>453</v>
+      </c>
+      <c r="J57" t="s">
+        <v>404</v>
+      </c>
+      <c r="K57" t="s">
+        <v>405</v>
+      </c>
+      <c r="L57" t="s">
         <v>406</v>
       </c>
-      <c r="G57" t="s">
-        <v>457</v>
-      </c>
-      <c r="H57" t="s">
-        <v>458</v>
-      </c>
-      <c r="I57" t="s">
-        <v>459</v>
-      </c>
-      <c r="J57" t="s">
-        <v>410</v>
-      </c>
-      <c r="K57" t="s">
-        <v>411</v>
-      </c>
-      <c r="L57" t="s">
-        <v>412</v>
-      </c>
       <c r="M57" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B58" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
@@ -4651,39 +4658,39 @@
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F58" t="s">
+        <v>400</v>
+      </c>
+      <c r="G58" t="s">
+        <v>456</v>
+      </c>
+      <c r="H58" t="s">
+        <v>457</v>
+      </c>
+      <c r="I58" t="s">
+        <v>458</v>
+      </c>
+      <c r="J58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L58" t="s">
         <v>406</v>
       </c>
-      <c r="G58" t="s">
-        <v>462</v>
-      </c>
-      <c r="H58" t="s">
-        <v>463</v>
-      </c>
-      <c r="I58" t="s">
-        <v>464</v>
-      </c>
-      <c r="J58" t="s">
-        <v>410</v>
-      </c>
-      <c r="K58" t="s">
-        <v>411</v>
-      </c>
-      <c r="L58" t="s">
-        <v>412</v>
-      </c>
       <c r="M58" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B59" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -4692,39 +4699,39 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F59" t="s">
+        <v>400</v>
+      </c>
+      <c r="G59" t="s">
+        <v>461</v>
+      </c>
+      <c r="H59" t="s">
+        <v>462</v>
+      </c>
+      <c r="I59" t="s">
+        <v>463</v>
+      </c>
+      <c r="J59" t="s">
+        <v>404</v>
+      </c>
+      <c r="K59" t="s">
+        <v>405</v>
+      </c>
+      <c r="L59" t="s">
         <v>406</v>
       </c>
-      <c r="G59" t="s">
-        <v>467</v>
-      </c>
-      <c r="H59" t="s">
-        <v>468</v>
-      </c>
-      <c r="I59" t="s">
-        <v>469</v>
-      </c>
-      <c r="J59" t="s">
-        <v>410</v>
-      </c>
-      <c r="K59" t="s">
-        <v>411</v>
-      </c>
-      <c r="L59" t="s">
-        <v>412</v>
-      </c>
       <c r="M59" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -4733,39 +4740,39 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
+        <v>400</v>
+      </c>
+      <c r="G60" t="s">
+        <v>466</v>
+      </c>
+      <c r="H60" t="s">
+        <v>467</v>
+      </c>
+      <c r="I60" t="s">
+        <v>468</v>
+      </c>
+      <c r="J60" t="s">
+        <v>404</v>
+      </c>
+      <c r="K60" t="s">
+        <v>405</v>
+      </c>
+      <c r="L60" t="s">
         <v>406</v>
       </c>
-      <c r="G60" t="s">
-        <v>472</v>
-      </c>
-      <c r="H60" t="s">
-        <v>473</v>
-      </c>
-      <c r="I60" t="s">
-        <v>474</v>
-      </c>
-      <c r="J60" t="s">
-        <v>410</v>
-      </c>
-      <c r="K60" t="s">
-        <v>411</v>
-      </c>
-      <c r="L60" t="s">
-        <v>412</v>
-      </c>
       <c r="M60" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B61" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -4774,39 +4781,39 @@
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F61" t="s">
+        <v>400</v>
+      </c>
+      <c r="G61" t="s">
+        <v>471</v>
+      </c>
+      <c r="H61" t="s">
+        <v>472</v>
+      </c>
+      <c r="I61" t="s">
+        <v>473</v>
+      </c>
+      <c r="J61" t="s">
+        <v>404</v>
+      </c>
+      <c r="K61" t="s">
+        <v>405</v>
+      </c>
+      <c r="L61" t="s">
         <v>406</v>
       </c>
-      <c r="G61" t="s">
-        <v>477</v>
-      </c>
-      <c r="H61" t="s">
-        <v>478</v>
-      </c>
-      <c r="I61" t="s">
-        <v>479</v>
-      </c>
-      <c r="J61" t="s">
-        <v>410</v>
-      </c>
-      <c r="K61" t="s">
-        <v>411</v>
-      </c>
-      <c r="L61" t="s">
-        <v>412</v>
-      </c>
       <c r="M61" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
@@ -4815,39 +4822,39 @@
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F62" t="s">
+        <v>400</v>
+      </c>
+      <c r="G62" t="s">
+        <v>476</v>
+      </c>
+      <c r="H62" t="s">
+        <v>477</v>
+      </c>
+      <c r="I62" t="s">
+        <v>478</v>
+      </c>
+      <c r="J62" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" t="s">
+        <v>405</v>
+      </c>
+      <c r="L62" t="s">
         <v>406</v>
       </c>
-      <c r="G62" t="s">
-        <v>482</v>
-      </c>
-      <c r="H62" t="s">
-        <v>483</v>
-      </c>
-      <c r="I62" t="s">
-        <v>484</v>
-      </c>
-      <c r="J62" t="s">
-        <v>410</v>
-      </c>
-      <c r="K62" t="s">
-        <v>411</v>
-      </c>
-      <c r="L62" t="s">
-        <v>412</v>
-      </c>
       <c r="M62" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
@@ -4856,39 +4863,39 @@
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F63" t="s">
+        <v>400</v>
+      </c>
+      <c r="G63" t="s">
+        <v>481</v>
+      </c>
+      <c r="H63" t="s">
+        <v>482</v>
+      </c>
+      <c r="I63" t="s">
+        <v>483</v>
+      </c>
+      <c r="J63" t="s">
+        <v>404</v>
+      </c>
+      <c r="K63" t="s">
+        <v>405</v>
+      </c>
+      <c r="L63" t="s">
         <v>406</v>
       </c>
-      <c r="G63" t="s">
-        <v>487</v>
-      </c>
-      <c r="H63" t="s">
-        <v>488</v>
-      </c>
-      <c r="I63" t="s">
-        <v>489</v>
-      </c>
-      <c r="J63" t="s">
-        <v>410</v>
-      </c>
-      <c r="K63" t="s">
-        <v>411</v>
-      </c>
-      <c r="L63" t="s">
-        <v>412</v>
-      </c>
       <c r="M63" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
@@ -4897,39 +4904,39 @@
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F64" t="s">
+        <v>400</v>
+      </c>
+      <c r="G64" t="s">
+        <v>486</v>
+      </c>
+      <c r="H64" t="s">
+        <v>487</v>
+      </c>
+      <c r="I64" t="s">
+        <v>488</v>
+      </c>
+      <c r="J64" t="s">
+        <v>404</v>
+      </c>
+      <c r="K64" t="s">
+        <v>405</v>
+      </c>
+      <c r="L64" t="s">
         <v>406</v>
       </c>
-      <c r="G64" t="s">
-        <v>492</v>
-      </c>
-      <c r="H64" t="s">
-        <v>493</v>
-      </c>
-      <c r="I64" t="s">
-        <v>494</v>
-      </c>
-      <c r="J64" t="s">
-        <v>410</v>
-      </c>
-      <c r="K64" t="s">
-        <v>411</v>
-      </c>
-      <c r="L64" t="s">
-        <v>412</v>
-      </c>
       <c r="M64" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B65" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
@@ -4938,39 +4945,39 @@
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
+        <v>400</v>
+      </c>
+      <c r="G65" t="s">
+        <v>491</v>
+      </c>
+      <c r="H65" t="s">
+        <v>492</v>
+      </c>
+      <c r="I65" t="s">
+        <v>493</v>
+      </c>
+      <c r="J65" t="s">
+        <v>404</v>
+      </c>
+      <c r="K65" t="s">
+        <v>405</v>
+      </c>
+      <c r="L65" t="s">
         <v>406</v>
       </c>
-      <c r="G65" t="s">
-        <v>497</v>
-      </c>
-      <c r="H65" t="s">
-        <v>498</v>
-      </c>
-      <c r="I65" t="s">
-        <v>499</v>
-      </c>
-      <c r="J65" t="s">
-        <v>410</v>
-      </c>
-      <c r="K65" t="s">
-        <v>411</v>
-      </c>
-      <c r="L65" t="s">
-        <v>412</v>
-      </c>
       <c r="M65" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B66" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
@@ -4979,39 +4986,39 @@
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F66" t="s">
+        <v>400</v>
+      </c>
+      <c r="G66" t="s">
+        <v>496</v>
+      </c>
+      <c r="H66" t="s">
+        <v>497</v>
+      </c>
+      <c r="I66" t="s">
+        <v>498</v>
+      </c>
+      <c r="J66" t="s">
+        <v>404</v>
+      </c>
+      <c r="K66" t="s">
+        <v>405</v>
+      </c>
+      <c r="L66" t="s">
         <v>406</v>
       </c>
-      <c r="G66" t="s">
-        <v>502</v>
-      </c>
-      <c r="H66" t="s">
-        <v>503</v>
-      </c>
-      <c r="I66" t="s">
-        <v>504</v>
-      </c>
-      <c r="J66" t="s">
-        <v>410</v>
-      </c>
-      <c r="K66" t="s">
-        <v>411</v>
-      </c>
-      <c r="L66" t="s">
-        <v>412</v>
-      </c>
       <c r="M66" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B67" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -5020,39 +5027,39 @@
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F67" t="s">
+        <v>400</v>
+      </c>
+      <c r="G67" t="s">
+        <v>501</v>
+      </c>
+      <c r="H67" t="s">
+        <v>502</v>
+      </c>
+      <c r="I67" t="s">
+        <v>503</v>
+      </c>
+      <c r="J67" t="s">
+        <v>404</v>
+      </c>
+      <c r="K67" t="s">
+        <v>405</v>
+      </c>
+      <c r="L67" t="s">
         <v>406</v>
       </c>
-      <c r="G67" t="s">
-        <v>507</v>
-      </c>
-      <c r="H67" t="s">
-        <v>508</v>
-      </c>
-      <c r="I67" t="s">
-        <v>509</v>
-      </c>
-      <c r="J67" t="s">
-        <v>410</v>
-      </c>
-      <c r="K67" t="s">
-        <v>411</v>
-      </c>
-      <c r="L67" t="s">
-        <v>412</v>
-      </c>
       <c r="M67" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B68" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
@@ -5061,39 +5068,39 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F68" t="s">
+        <v>400</v>
+      </c>
+      <c r="G68" t="s">
+        <v>506</v>
+      </c>
+      <c r="H68" t="s">
+        <v>507</v>
+      </c>
+      <c r="I68" t="s">
+        <v>508</v>
+      </c>
+      <c r="J68" t="s">
+        <v>404</v>
+      </c>
+      <c r="K68" t="s">
+        <v>405</v>
+      </c>
+      <c r="L68" t="s">
         <v>406</v>
       </c>
-      <c r="G68" t="s">
-        <v>512</v>
-      </c>
-      <c r="H68" t="s">
-        <v>513</v>
-      </c>
-      <c r="I68" t="s">
-        <v>514</v>
-      </c>
-      <c r="J68" t="s">
-        <v>410</v>
-      </c>
-      <c r="K68" t="s">
-        <v>411</v>
-      </c>
-      <c r="L68" t="s">
-        <v>412</v>
-      </c>
       <c r="M68" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B69" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
@@ -5102,39 +5109,39 @@
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F69" t="s">
+        <v>400</v>
+      </c>
+      <c r="G69" t="s">
+        <v>511</v>
+      </c>
+      <c r="H69" t="s">
+        <v>512</v>
+      </c>
+      <c r="I69" t="s">
+        <v>513</v>
+      </c>
+      <c r="J69" t="s">
+        <v>404</v>
+      </c>
+      <c r="K69" t="s">
+        <v>405</v>
+      </c>
+      <c r="L69" t="s">
         <v>406</v>
       </c>
-      <c r="G69" t="s">
-        <v>517</v>
-      </c>
-      <c r="H69" t="s">
-        <v>518</v>
-      </c>
-      <c r="I69" t="s">
-        <v>519</v>
-      </c>
-      <c r="J69" t="s">
-        <v>410</v>
-      </c>
-      <c r="K69" t="s">
-        <v>411</v>
-      </c>
-      <c r="L69" t="s">
-        <v>412</v>
-      </c>
       <c r="M69" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B70" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
@@ -5143,39 +5150,39 @@
         <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F70" t="s">
+        <v>400</v>
+      </c>
+      <c r="G70" t="s">
+        <v>506</v>
+      </c>
+      <c r="H70" t="s">
+        <v>516</v>
+      </c>
+      <c r="I70" t="s">
+        <v>508</v>
+      </c>
+      <c r="J70" t="s">
+        <v>404</v>
+      </c>
+      <c r="K70" t="s">
+        <v>405</v>
+      </c>
+      <c r="L70" t="s">
         <v>406</v>
       </c>
-      <c r="G70" t="s">
-        <v>512</v>
-      </c>
-      <c r="H70" t="s">
-        <v>522</v>
-      </c>
-      <c r="I70" t="s">
-        <v>514</v>
-      </c>
-      <c r="J70" t="s">
-        <v>410</v>
-      </c>
-      <c r="K70" t="s">
-        <v>411</v>
-      </c>
-      <c r="L70" t="s">
-        <v>412</v>
-      </c>
       <c r="M70" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B71" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -5184,39 +5191,39 @@
         <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F71" t="s">
+        <v>400</v>
+      </c>
+      <c r="G71" t="s">
+        <v>519</v>
+      </c>
+      <c r="H71" t="s">
+        <v>520</v>
+      </c>
+      <c r="I71" t="s">
+        <v>521</v>
+      </c>
+      <c r="J71" t="s">
+        <v>404</v>
+      </c>
+      <c r="K71" t="s">
+        <v>405</v>
+      </c>
+      <c r="L71" t="s">
         <v>406</v>
       </c>
-      <c r="G71" t="s">
-        <v>525</v>
-      </c>
-      <c r="H71" t="s">
-        <v>526</v>
-      </c>
-      <c r="I71" t="s">
-        <v>527</v>
-      </c>
-      <c r="J71" t="s">
-        <v>410</v>
-      </c>
-      <c r="K71" t="s">
-        <v>411</v>
-      </c>
-      <c r="L71" t="s">
-        <v>412</v>
-      </c>
       <c r="M71" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B72" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
@@ -5225,39 +5232,39 @@
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F72" t="s">
+        <v>400</v>
+      </c>
+      <c r="G72" t="s">
+        <v>524</v>
+      </c>
+      <c r="H72" t="s">
+        <v>525</v>
+      </c>
+      <c r="I72" t="s">
+        <v>526</v>
+      </c>
+      <c r="J72" t="s">
+        <v>404</v>
+      </c>
+      <c r="K72" t="s">
+        <v>405</v>
+      </c>
+      <c r="L72" t="s">
         <v>406</v>
       </c>
-      <c r="G72" t="s">
-        <v>530</v>
-      </c>
-      <c r="H72" t="s">
-        <v>531</v>
-      </c>
-      <c r="I72" t="s">
-        <v>532</v>
-      </c>
-      <c r="J72" t="s">
-        <v>410</v>
-      </c>
-      <c r="K72" t="s">
-        <v>411</v>
-      </c>
-      <c r="L72" t="s">
-        <v>412</v>
-      </c>
       <c r="M72" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B73" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
@@ -5266,39 +5273,39 @@
         <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F73" t="s">
+        <v>400</v>
+      </c>
+      <c r="G73" t="s">
+        <v>529</v>
+      </c>
+      <c r="H73" t="s">
+        <v>530</v>
+      </c>
+      <c r="I73" t="s">
+        <v>531</v>
+      </c>
+      <c r="J73" t="s">
+        <v>404</v>
+      </c>
+      <c r="K73" t="s">
+        <v>405</v>
+      </c>
+      <c r="L73" t="s">
         <v>406</v>
       </c>
-      <c r="G73" t="s">
-        <v>535</v>
-      </c>
-      <c r="H73" t="s">
-        <v>536</v>
-      </c>
-      <c r="I73" t="s">
-        <v>537</v>
-      </c>
-      <c r="J73" t="s">
-        <v>410</v>
-      </c>
-      <c r="K73" t="s">
-        <v>411</v>
-      </c>
-      <c r="L73" t="s">
-        <v>412</v>
-      </c>
       <c r="M73" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B74" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -5310,36 +5317,36 @@
         <v>17</v>
       </c>
       <c r="F74" t="s">
+        <v>534</v>
+      </c>
+      <c r="G74" t="s">
+        <v>535</v>
+      </c>
+      <c r="H74" t="s">
+        <v>536</v>
+      </c>
+      <c r="I74" t="s">
+        <v>537</v>
+      </c>
+      <c r="J74" t="s">
+        <v>538</v>
+      </c>
+      <c r="K74" t="s">
+        <v>539</v>
+      </c>
+      <c r="L74" t="s">
         <v>540</v>
       </c>
-      <c r="G74" t="s">
+      <c r="M74" t="s">
         <v>541</v>
-      </c>
-      <c r="H74" t="s">
-        <v>542</v>
-      </c>
-      <c r="I74" t="s">
-        <v>543</v>
-      </c>
-      <c r="J74" t="s">
-        <v>544</v>
-      </c>
-      <c r="K74" t="s">
-        <v>545</v>
-      </c>
-      <c r="L74" t="s">
-        <v>546</v>
-      </c>
-      <c r="M74" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B75" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
@@ -5351,36 +5358,36 @@
         <v>17</v>
       </c>
       <c r="F75" t="s">
+        <v>534</v>
+      </c>
+      <c r="G75" t="s">
+        <v>544</v>
+      </c>
+      <c r="H75" t="s">
+        <v>545</v>
+      </c>
+      <c r="I75" t="s">
+        <v>546</v>
+      </c>
+      <c r="J75" t="s">
+        <v>547</v>
+      </c>
+      <c r="K75" t="s">
+        <v>539</v>
+      </c>
+      <c r="L75" t="s">
         <v>540</v>
       </c>
-      <c r="G75" t="s">
-        <v>550</v>
-      </c>
-      <c r="H75" t="s">
-        <v>551</v>
-      </c>
-      <c r="I75" t="s">
-        <v>552</v>
-      </c>
-      <c r="J75" t="s">
-        <v>553</v>
-      </c>
-      <c r="K75" t="s">
-        <v>545</v>
-      </c>
-      <c r="L75" t="s">
-        <v>546</v>
-      </c>
       <c r="M75" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B76" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
@@ -5392,36 +5399,36 @@
         <v>17</v>
       </c>
       <c r="F76" t="s">
+        <v>534</v>
+      </c>
+      <c r="G76" t="s">
+        <v>550</v>
+      </c>
+      <c r="H76" t="s">
+        <v>551</v>
+      </c>
+      <c r="I76" t="s">
+        <v>552</v>
+      </c>
+      <c r="J76" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76" t="s">
+        <v>539</v>
+      </c>
+      <c r="L76" t="s">
         <v>540</v>
       </c>
-      <c r="G76" t="s">
-        <v>556</v>
-      </c>
-      <c r="H76" t="s">
-        <v>557</v>
-      </c>
-      <c r="I76" t="s">
-        <v>558</v>
-      </c>
-      <c r="J76" t="s">
-        <v>49</v>
-      </c>
-      <c r="K76" t="s">
-        <v>545</v>
-      </c>
-      <c r="L76" t="s">
-        <v>546</v>
-      </c>
       <c r="M76" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B77" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
@@ -5433,77 +5440,77 @@
         <v>17</v>
       </c>
       <c r="F77" t="s">
+        <v>534</v>
+      </c>
+      <c r="G77" t="s">
+        <v>555</v>
+      </c>
+      <c r="H77" t="s">
+        <v>556</v>
+      </c>
+      <c r="I77" t="s">
+        <v>557</v>
+      </c>
+      <c r="J77" t="s">
+        <v>558</v>
+      </c>
+      <c r="K77" t="s">
+        <v>539</v>
+      </c>
+      <c r="L77" t="s">
         <v>540</v>
       </c>
-      <c r="G77" t="s">
-        <v>561</v>
-      </c>
-      <c r="H77" t="s">
-        <v>562</v>
-      </c>
-      <c r="I77" t="s">
-        <v>563</v>
-      </c>
-      <c r="J77" t="s">
-        <v>564</v>
-      </c>
-      <c r="K77" t="s">
-        <v>545</v>
-      </c>
-      <c r="L77" t="s">
-        <v>546</v>
-      </c>
       <c r="M77" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>560</v>
+      </c>
+      <c r="B78" t="s">
+        <v>561</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s">
+        <v>534</v>
+      </c>
+      <c r="G78" t="s">
+        <v>562</v>
+      </c>
+      <c r="H78" t="s">
+        <v>563</v>
+      </c>
+      <c r="I78" t="s">
+        <v>564</v>
+      </c>
+      <c r="J78" t="s">
+        <v>541</v>
+      </c>
+      <c r="K78" t="s">
+        <v>565</v>
+      </c>
+      <c r="L78" t="s">
+        <v>540</v>
+      </c>
+      <c r="M78" t="s">
         <v>566</v>
-      </c>
-      <c r="B78" t="s">
-        <v>567</v>
-      </c>
-      <c r="C78" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" t="s">
-        <v>83</v>
-      </c>
-      <c r="F78" t="s">
-        <v>540</v>
-      </c>
-      <c r="G78" t="s">
-        <v>568</v>
-      </c>
-      <c r="H78" t="s">
-        <v>569</v>
-      </c>
-      <c r="I78" t="s">
-        <v>570</v>
-      </c>
-      <c r="J78" t="s">
-        <v>547</v>
-      </c>
-      <c r="K78" t="s">
-        <v>571</v>
-      </c>
-      <c r="L78" t="s">
-        <v>546</v>
-      </c>
-      <c r="M78" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B79" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
@@ -5515,77 +5522,77 @@
         <v>17</v>
       </c>
       <c r="F79" t="s">
+        <v>569</v>
+      </c>
+      <c r="G79" t="s">
+        <v>570</v>
+      </c>
+      <c r="H79" t="s">
+        <v>571</v>
+      </c>
+      <c r="I79" t="s">
+        <v>572</v>
+      </c>
+      <c r="J79" t="s">
+        <v>573</v>
+      </c>
+      <c r="K79" t="s">
+        <v>574</v>
+      </c>
+      <c r="L79" t="s">
         <v>575</v>
       </c>
-      <c r="G79" t="s">
+      <c r="M79" t="s">
         <v>576</v>
-      </c>
-      <c r="H79" t="s">
-        <v>577</v>
-      </c>
-      <c r="I79" t="s">
-        <v>578</v>
-      </c>
-      <c r="J79" t="s">
-        <v>579</v>
-      </c>
-      <c r="K79" t="s">
-        <v>580</v>
-      </c>
-      <c r="L79" t="s">
-        <v>581</v>
-      </c>
-      <c r="M79" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>577</v>
+      </c>
+      <c r="B80" t="s">
+        <v>578</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s">
+        <v>579</v>
+      </c>
+      <c r="G80" t="s">
+        <v>580</v>
+      </c>
+      <c r="H80" t="s">
+        <v>581</v>
+      </c>
+      <c r="I80" t="s">
+        <v>582</v>
+      </c>
+      <c r="J80" t="s">
         <v>583</v>
       </c>
-      <c r="B80" t="s">
+      <c r="K80" t="s">
         <v>584</v>
       </c>
-      <c r="C80" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="L80" t="s">
         <v>585</v>
       </c>
-      <c r="G80" t="s">
+      <c r="M80" t="s">
         <v>586</v>
-      </c>
-      <c r="H80" t="s">
-        <v>587</v>
-      </c>
-      <c r="I80" t="s">
-        <v>588</v>
-      </c>
-      <c r="J80" t="s">
-        <v>589</v>
-      </c>
-      <c r="K80" t="s">
-        <v>590</v>
-      </c>
-      <c r="L80" t="s">
-        <v>591</v>
-      </c>
-      <c r="M80" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B81" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
@@ -5597,118 +5604,118 @@
         <v>17</v>
       </c>
       <c r="F81" t="s">
+        <v>589</v>
+      </c>
+      <c r="G81" t="s">
+        <v>590</v>
+      </c>
+      <c r="H81" t="s">
+        <v>591</v>
+      </c>
+      <c r="I81" t="s">
+        <v>592</v>
+      </c>
+      <c r="J81" t="s">
+        <v>593</v>
+      </c>
+      <c r="K81" t="s">
+        <v>594</v>
+      </c>
+      <c r="L81" t="s">
         <v>595</v>
       </c>
-      <c r="G81" t="s">
+      <c r="M81" t="s">
         <v>596</v>
-      </c>
-      <c r="H81" t="s">
-        <v>597</v>
-      </c>
-      <c r="I81" t="s">
-        <v>598</v>
-      </c>
-      <c r="J81" t="s">
-        <v>599</v>
-      </c>
-      <c r="K81" t="s">
-        <v>600</v>
-      </c>
-      <c r="L81" t="s">
-        <v>601</v>
-      </c>
-      <c r="M81" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>597</v>
+      </c>
+      <c r="B82" t="s">
+        <v>598</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s">
+        <v>599</v>
+      </c>
+      <c r="G82" t="s">
+        <v>600</v>
+      </c>
+      <c r="H82" t="s">
+        <v>601</v>
+      </c>
+      <c r="I82" t="s">
+        <v>602</v>
+      </c>
+      <c r="J82" t="s">
         <v>603</v>
       </c>
-      <c r="B82" t="s">
+      <c r="K82" t="s">
         <v>604</v>
       </c>
-      <c r="C82" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" t="s">
-        <v>83</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="L82" t="s">
         <v>605</v>
       </c>
-      <c r="G82" t="s">
+      <c r="M82" t="s">
         <v>606</v>
-      </c>
-      <c r="H82" t="s">
-        <v>607</v>
-      </c>
-      <c r="I82" t="s">
-        <v>608</v>
-      </c>
-      <c r="J82" t="s">
-        <v>609</v>
-      </c>
-      <c r="K82" t="s">
-        <v>610</v>
-      </c>
-      <c r="L82" t="s">
-        <v>611</v>
-      </c>
-      <c r="M82" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>607</v>
+      </c>
+      <c r="B83" t="s">
+        <v>608</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" t="s">
+        <v>595</v>
+      </c>
+      <c r="G83" t="s">
+        <v>609</v>
+      </c>
+      <c r="H83" t="s">
+        <v>610</v>
+      </c>
+      <c r="I83" t="s">
+        <v>611</v>
+      </c>
+      <c r="J83" t="s">
+        <v>612</v>
+      </c>
+      <c r="K83" t="s">
         <v>613</v>
       </c>
-      <c r="B83" t="s">
+      <c r="L83" t="s">
         <v>614</v>
       </c>
-      <c r="C83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" t="s">
-        <v>73</v>
-      </c>
-      <c r="F83" t="s">
-        <v>601</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="M83" t="s">
         <v>615</v>
-      </c>
-      <c r="H83" t="s">
-        <v>616</v>
-      </c>
-      <c r="I83" t="s">
-        <v>617</v>
-      </c>
-      <c r="J83" t="s">
-        <v>618</v>
-      </c>
-      <c r="K83" t="s">
-        <v>619</v>
-      </c>
-      <c r="L83" t="s">
-        <v>620</v>
-      </c>
-      <c r="M83" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B84" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
@@ -5723,25 +5730,25 @@
         <v>18</v>
       </c>
       <c r="G84" t="s">
+        <v>618</v>
+      </c>
+      <c r="H84" t="s">
+        <v>619</v>
+      </c>
+      <c r="I84" t="s">
+        <v>620</v>
+      </c>
+      <c r="J84" t="s">
+        <v>621</v>
+      </c>
+      <c r="K84" t="s">
+        <v>622</v>
+      </c>
+      <c r="L84" t="s">
+        <v>623</v>
+      </c>
+      <c r="M84" t="s">
         <v>624</v>
-      </c>
-      <c r="H84" t="s">
-        <v>625</v>
-      </c>
-      <c r="I84" t="s">
-        <v>626</v>
-      </c>
-      <c r="J84" t="s">
-        <v>627</v>
-      </c>
-      <c r="K84" t="s">
-        <v>628</v>
-      </c>
-      <c r="L84" t="s">
-        <v>629</v>
-      </c>
-      <c r="M84" t="s">
-        <v>630</v>
       </c>
     </row>
   </sheetData>
